--- a/spliced/walkingToRunning/2023-03-30_14-22-08/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-22-08/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1120047569274902</v>
+        <v>-7.487135410308838</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.523766279220581</v>
+        <v>2.468842267990112</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.589697360992432</v>
+        <v>-10.7623405456543</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.053479909896851</v>
+        <v>6.657902849829999e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3754391372203827</v>
+        <v>0.5838314890861511</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5234442949295044</v>
+        <v>0.3130545914173126</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1642012596130371</v>
+        <v>5.30696439743042</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.677549123764038</v>
+        <v>-7.900328636169434</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.916802883148193</v>
+        <v>-8.124782562255859</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.651625990867615</v>
+        <v>1.05201518535614</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3386875092983246</v>
+        <v>1.37851881980896</v>
       </c>
       <c r="H3" t="n">
-        <v>2.086187362670898</v>
+        <v>0.5420864224433899</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.91043758392334</v>
+        <v>0.1120047569274902</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.157215595245361</v>
+        <v>-3.523766279220581</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.494926452636719</v>
+        <v>-6.589697360992432</v>
       </c>
       <c r="F4" t="n">
-        <v>2.480534791946411</v>
+        <v>-1.053479909896851</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6072673201560974</v>
+        <v>-0.3754391372203827</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0555269084870815</v>
+        <v>0.5234442949295044</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.463288307189941</v>
+        <v>-0.1642012596130371</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.138980388641357</v>
+        <v>-2.677549123764038</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.2139720916748</v>
+        <v>-5.916802883148193</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3121890723705292</v>
+        <v>-1.651625990867615</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.295861721038818</v>
+        <v>-0.3386875092983246</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.403902292251587</v>
+        <v>2.086187362670898</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.665878295898437</v>
+        <v>2.91043758392334</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.94788122177124</v>
+        <v>-5.157215595245361</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.101637840271</v>
+        <v>-1.494926452636719</v>
       </c>
       <c r="F6" t="n">
-        <v>3.045657634735107</v>
+        <v>2.480534791946411</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.371461391448975</v>
+        <v>0.6072673201560974</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.965579986572266</v>
+        <v>-0.0555269084870815</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.109983444213867</v>
+        <v>-4.463288307189941</v>
       </c>
       <c r="D7" t="n">
-        <v>-22.90362548828125</v>
+        <v>-6.138980388641357</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.720759391784668</v>
+        <v>-15.2139720916748</v>
       </c>
       <c r="F7" t="n">
-        <v>1.784917116165161</v>
+        <v>0.3121890723705292</v>
       </c>
       <c r="G7" t="n">
-        <v>3.971904993057251</v>
+        <v>-3.295861721038818</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.264420986175537</v>
+        <v>-2.403902292251587</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-23.78427696228028</v>
+        <v>-2.665878295898437</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.573103904724121</v>
+        <v>-4.94788122177124</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.555922031402588</v>
+        <v>-14.101637840271</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.070807456970215</v>
+        <v>3.045657634735107</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.531001806259156</v>
+        <v>-1.371461391448975</v>
       </c>
       <c r="H8" t="n">
-        <v>5.346961975097656</v>
+        <v>-3.965579986572266</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.0823409557342529</v>
+        <v>2.109983444213867</v>
       </c>
       <c r="D9" t="n">
-        <v>6.524863243103027</v>
+        <v>-22.90362548828125</v>
       </c>
       <c r="E9" t="n">
-        <v>0.961866855621338</v>
+        <v>-9.720759391784668</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.287373542785645</v>
+        <v>1.784917116165161</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.623929142951965</v>
+        <v>3.971904993057251</v>
       </c>
       <c r="H9" t="n">
-        <v>4.378103733062744</v>
+        <v>-6.264420986175537</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.332920551300049</v>
+        <v>-23.78427696228028</v>
       </c>
       <c r="D10" t="n">
-        <v>-42.73205184936523</v>
+        <v>-3.573103904724121</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.979649543762207</v>
+        <v>-5.555922031402588</v>
       </c>
       <c r="F10" t="n">
-        <v>-9.357216835021973</v>
+        <v>-2.070807456970215</v>
       </c>
       <c r="G10" t="n">
-        <v>4.914664268493652</v>
+        <v>-2.531001806259156</v>
       </c>
       <c r="H10" t="n">
-        <v>2.073936700820923</v>
+        <v>5.346961975097656</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.95712423324585</v>
+        <v>-0.0823409557342529</v>
       </c>
       <c r="D11" t="n">
-        <v>9.703181266784668</v>
+        <v>6.524863243103027</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.591499328613279</v>
+        <v>0.961866855621338</v>
       </c>
       <c r="F11" t="n">
-        <v>1.831788778305054</v>
+        <v>-5.287373542785645</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.64909839630127</v>
+        <v>-1.623929142951965</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.40841281414032</v>
+        <v>4.378103733062744</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-12.04059410095215</v>
+        <v>-3.332920551300049</v>
       </c>
       <c r="D12" t="n">
-        <v>-11.62393760681152</v>
+        <v>-42.73205184936523</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.216552734375</v>
+        <v>-5.979649543762207</v>
       </c>
       <c r="F12" t="n">
-        <v>3.237405300140381</v>
+        <v>-9.357216835021973</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.015663027763367</v>
+        <v>4.914664268493652</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.009289741516113</v>
+        <v>2.073936700820923</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-30.35504722595215</v>
+        <v>7.95712423324585</v>
       </c>
       <c r="D13" t="n">
-        <v>-42.07619094848633</v>
+        <v>9.703181266784668</v>
       </c>
       <c r="E13" t="n">
-        <v>14.66377067565918</v>
+        <v>-9.591499328613279</v>
       </c>
       <c r="F13" t="n">
-        <v>5.363673210144043</v>
+        <v>1.831788778305054</v>
       </c>
       <c r="G13" t="n">
-        <v>3.099453449249268</v>
+        <v>-9.64909839630127</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.63826060295105</v>
+        <v>-1.40841281414032</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.246713161468506</v>
+        <v>-12.04059410095215</v>
       </c>
       <c r="D14" t="n">
-        <v>3.201902866363525</v>
+        <v>-11.62393760681152</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.634400367736816</v>
+        <v>-15.216552734375</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.723599433898926</v>
+        <v>3.237405300140381</v>
       </c>
       <c r="G14" t="n">
-        <v>2.653107643127441</v>
+        <v>-1.015663027763367</v>
       </c>
       <c r="H14" t="n">
-        <v>2.690192222595215</v>
+        <v>-6.009289741516113</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.14187526702881</v>
+        <v>-30.35504722595215</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.368836879730225</v>
+        <v>-42.07619094848633</v>
       </c>
       <c r="E15" t="n">
-        <v>2.886821746826172</v>
+        <v>14.66377067565918</v>
       </c>
       <c r="F15" t="n">
-        <v>-7.246927738189697</v>
+        <v>5.363673210144043</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.130711674690247</v>
+        <v>3.099453449249268</v>
       </c>
       <c r="H15" t="n">
-        <v>3.536544799804688</v>
+        <v>-2.63826060295105</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-66.83038330078125</v>
+        <v>4.246713161468506</v>
       </c>
       <c r="D16" t="n">
-        <v>-23.19043350219727</v>
+        <v>3.201902866363525</v>
       </c>
       <c r="E16" t="n">
-        <v>-35.43113708496094</v>
+        <v>-3.634400367736816</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5896904468536377</v>
+        <v>-5.723599433898926</v>
       </c>
       <c r="G16" t="n">
-        <v>12.76406574249268</v>
+        <v>2.653107643127441</v>
       </c>
       <c r="H16" t="n">
-        <v>2.221475839614868</v>
+        <v>2.690192222595215</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.56573677062988</v>
+        <v>15.14187526702881</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.212137758731842</v>
+        <v>-2.368836879730225</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.44221496582031</v>
+        <v>2.886821746826172</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.113667368888855</v>
+        <v>-7.246927738189697</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.135539293289185</v>
+        <v>-1.130711674690247</v>
       </c>
       <c r="H17" t="n">
-        <v>2.971954584121704</v>
+        <v>3.536544799804688</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>43.28559112548828</v>
+        <v>-66.83038330078125</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.05164337158203</v>
+        <v>-23.19043350219727</v>
       </c>
       <c r="E18" t="n">
-        <v>-13.05863285064697</v>
+        <v>-35.43113708496094</v>
       </c>
       <c r="F18" t="n">
-        <v>6.756506443023682</v>
+        <v>0.5896904468536377</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.358247756958008</v>
+        <v>12.76406574249268</v>
       </c>
       <c r="H18" t="n">
-        <v>-5.698232650756836</v>
+        <v>2.221475839614868</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30.09039688110352</v>
+        <v>21.56573677062988</v>
       </c>
       <c r="D19" t="n">
-        <v>-34.86870574951172</v>
+        <v>-0.212137758731842</v>
       </c>
       <c r="E19" t="n">
-        <v>6.082807540893555</v>
+        <v>-20.44221496582031</v>
       </c>
       <c r="F19" t="n">
-        <v>4.204665184020996</v>
+        <v>-1.113667368888855</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.005010485649109</v>
+        <v>-3.135539293289185</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.928545236587524</v>
+        <v>2.971954584121704</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-2.691319465637207</v>
+        <v>43.28559112548828</v>
       </c>
       <c r="D20" t="n">
-        <v>10.76634311676025</v>
+        <v>-13.05164337158203</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.473065376281738</v>
+        <v>-13.05863285064697</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.400756239891052</v>
+        <v>6.756506443023682</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9566740393638612</v>
+        <v>-7.358247756958008</v>
       </c>
       <c r="H20" t="n">
-        <v>2.680604934692383</v>
+        <v>-5.698232650756836</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>30.09039688110352</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-34.86870574951172</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.082807540893555</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.204665184020996</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.005010485649109</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-2.928545236587524</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.691319465637207</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10.76634311676025</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-5.473065376281738</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.400756239891052</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9566740393638612</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.680604934692383</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>11.3234281539917</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>-40.29625701904297</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E23" t="n">
         <v>38.12360763549805</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F23" t="n">
         <v>-11.39346981048584</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G23" t="n">
         <v>-1.724596619606018</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>13.37479496002197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-7.852145671844482</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.264562606811523</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-14.15214920043945</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.482767105102539</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.4398876428604126</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-8.189353942871094</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.107211589813232</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-2.712513208389282</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-20.56048202514648</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.3088601231575012</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-7.590475082397461</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.290185451507568</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-8.579601287841797</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-15.95286655426025</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-10.86754608154297</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.10509729385376</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.359460175037384</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-4.315519332885742</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7219026684761047</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.51579213142395</v>
+      </c>
+      <c r="E27" t="n">
+        <v>17.58181953430176</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-1.245227575302124</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.861483097076416</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.978062987327576</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.065989017486572</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16.71288681030273</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.314104557037354</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.619668006896973</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.064798355102539</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.856090188026428</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-11.12415027618408</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-78.97219848632812</v>
+      </c>
+      <c r="E29" t="n">
+        <v>36.16990280151367</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-10.51302814483643</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-17.02712059020996</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-4.28569221496582</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.5275765657424927</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10.35773277282715</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-23.80691909790039</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.720071792602541</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2.732869386672974</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.917076587677002</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-18.0826530456543</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.298346519470215</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-14.97142791748047</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3920839130878448</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4.407997608184815</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.71547520160675</v>
       </c>
     </row>
   </sheetData>
